--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H2">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N2">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O2">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P2">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q2">
-        <v>2.206601104136222</v>
+        <v>1.487429255462333</v>
       </c>
       <c r="R2">
-        <v>19.859409937226</v>
+        <v>13.386863299161</v>
       </c>
       <c r="S2">
-        <v>0.004111593670375002</v>
+        <v>0.002625854662665259</v>
       </c>
       <c r="T2">
-        <v>0.004111593670375003</v>
+        <v>0.002625854662665259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H3">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P3">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q3">
-        <v>109.2921231313678</v>
+        <v>76.43438112542833</v>
       </c>
       <c r="R3">
-        <v>983.6291081823101</v>
+        <v>687.9094301288551</v>
       </c>
       <c r="S3">
-        <v>0.2036456887683294</v>
+        <v>0.1349345357630166</v>
       </c>
       <c r="T3">
-        <v>0.2036456887683295</v>
+        <v>0.1349345357630166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H4">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N4">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q4">
-        <v>15.43671599637534</v>
+        <v>16.05363599954033</v>
       </c>
       <c r="R4">
-        <v>138.930443967378</v>
+        <v>144.482723995863</v>
       </c>
       <c r="S4">
-        <v>0.02876346960177862</v>
+        <v>0.02834051756567143</v>
       </c>
       <c r="T4">
-        <v>0.02876346960177863</v>
+        <v>0.02834051756567143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J5">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N5">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O5">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P5">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q5">
-        <v>4.951301868352555</v>
+        <v>4.772346870726778</v>
       </c>
       <c r="R5">
-        <v>44.561716815173</v>
+        <v>42.951121836541</v>
       </c>
       <c r="S5">
-        <v>0.009225836687869943</v>
+        <v>0.008424931294267666</v>
       </c>
       <c r="T5">
-        <v>0.009225836687869948</v>
+        <v>0.008424931294267666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J6">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P6">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q6">
         <v>245.2361201316395</v>
@@ -818,10 +818,10 @@
         <v>2207.125081184755</v>
       </c>
       <c r="S6">
-        <v>0.4569522227603876</v>
+        <v>0.432931117319892</v>
       </c>
       <c r="T6">
-        <v>0.4569522227603878</v>
+        <v>0.432931117319892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J7">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N7">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q7">
-        <v>34.63781496837434</v>
+        <v>51.50733673204478</v>
       </c>
       <c r="R7">
-        <v>311.740334715369</v>
+        <v>463.5660305884031</v>
       </c>
       <c r="S7">
-        <v>0.06454117171999586</v>
+        <v>0.09092921886713175</v>
       </c>
       <c r="T7">
-        <v>0.0645411717199959</v>
+        <v>0.09092921886713175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H8">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N8">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O8">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P8">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q8">
-        <v>2.171515630740333</v>
+        <v>2.705993099979667</v>
       </c>
       <c r="R8">
-        <v>19.543640676663</v>
+        <v>24.353937899817</v>
       </c>
       <c r="S8">
-        <v>0.004046218369843228</v>
+        <v>0.004777063899091476</v>
       </c>
       <c r="T8">
-        <v>0.004046218369843229</v>
+        <v>0.004777063899091476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H9">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.133935</v>
       </c>
       <c r="O9">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P9">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q9">
-        <v>107.5543528242117</v>
+        <v>139.0526017738817</v>
       </c>
       <c r="R9">
-        <v>967.9891754179049</v>
+        <v>1251.473415964935</v>
       </c>
       <c r="S9">
-        <v>0.200407674710385</v>
+        <v>0.2454785136051325</v>
       </c>
       <c r="T9">
-        <v>0.200407674710385</v>
+        <v>0.2454785136051325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H10">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N10">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q10">
-        <v>15.191268603371</v>
+        <v>29.20544159314567</v>
       </c>
       <c r="R10">
-        <v>136.721417430339</v>
+        <v>262.848974338311</v>
       </c>
       <c r="S10">
-        <v>0.02830612371103516</v>
+        <v>0.05155824702313141</v>
       </c>
       <c r="T10">
-        <v>0.02830612371103517</v>
+        <v>0.05155824702313141</v>
       </c>
     </row>
   </sheetData>
